--- a/sample_emails.xlsx
+++ b/sample_emails.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>John Doe</t>
   </si>
   <si>
-    <t>johndoe@example.com</t>
+    <t>priyank.mali.5057@gmail.com</t>
   </si>
   <si>
     <t>9876543210</t>
@@ -37,82 +37,10 @@
     <t>Jane Smith</t>
   </si>
   <si>
-    <t>janesmith@example.com</t>
+    <t>priyankmali297@gmail.com</t>
   </si>
   <si>
     <t>8765432109</t>
-  </si>
-  <si>
-    <t>Alice Johnson</t>
-  </si>
-  <si>
-    <t>alicej@example.com</t>
-  </si>
-  <si>
-    <t>7654321098</t>
-  </si>
-  <si>
-    <t>Bob Brown</t>
-  </si>
-  <si>
-    <t>bobb@example.com</t>
-  </si>
-  <si>
-    <t>6543210987</t>
-  </si>
-  <si>
-    <t>Charlie Davis</t>
-  </si>
-  <si>
-    <t>charlied@example.com</t>
-  </si>
-  <si>
-    <t>5432109876</t>
-  </si>
-  <si>
-    <t>David Wilson</t>
-  </si>
-  <si>
-    <t>davidw@example.com</t>
-  </si>
-  <si>
-    <t>4321098765</t>
-  </si>
-  <si>
-    <t>Emma White</t>
-  </si>
-  <si>
-    <t>emmaw@example.com</t>
-  </si>
-  <si>
-    <t>3210987654</t>
-  </si>
-  <si>
-    <t>Frank Thomas</t>
-  </si>
-  <si>
-    <t>frankt@example.com</t>
-  </si>
-  <si>
-    <t>2109876543</t>
-  </si>
-  <si>
-    <t>Grace Hall</t>
-  </si>
-  <si>
-    <t>graceh@example.com</t>
-  </si>
-  <si>
-    <t>1098765432</t>
-  </si>
-  <si>
-    <t>Henry Lewis</t>
-  </si>
-  <si>
-    <t>henryl@example.com</t>
-  </si>
-  <si>
-    <t>0987654321</t>
   </si>
 </sst>
 </file>
@@ -484,7 +412,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -495,7 +423,7 @@
     <col min="3" max="3" style="3" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -517,7 +445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -526,94 +454,6 @@
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
-      <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
-      <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/sample_emails.xlsx
+++ b/sample_emails.xlsx
@@ -28,7 +28,7 @@
     <t>John Doe</t>
   </si>
   <si>
-    <t>priyank.mali.5057@gmail.com</t>
+    <t>john@gmail.com</t>
   </si>
   <si>
     <t>9876543210</t>
@@ -37,7 +37,7 @@
     <t>Jane Smith</t>
   </si>
   <si>
-    <t>priyankmali297@gmail.com</t>
+    <t>jane@gmail.com</t>
   </si>
   <si>
     <t>8765432109</t>
